--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/90995999/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/90995999/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9933980703353882</v>
+        <v>0.9913115501403809</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9918951392173767</v>
+        <v>0.9895608425140381</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9926216602325439</v>
+        <v>0.9904890060424805</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8973925113677979</v>
+        <v>0.8790642619132996</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9927425384521484</v>
+        <v>0.9905723929405212</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9932084679603577</v>
+        <v>0.9911190867424011</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9940359592437744</v>
+        <v>0.9921345710754395</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9932088255882263</v>
+        <v>0.9911296367645264</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9940359592437744</v>
+        <v>0.9921345710754395</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9941118359565735</v>
+        <v>0.9922687411308289</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9944252967834473</v>
+        <v>0.9926016926765442</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9825738072395325</v>
+        <v>0.9689385890960693</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9937199354171753</v>
+        <v>0.9918117523193359</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9933057427406311</v>
+        <v>0.9911694526672363</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9926192164421082</v>
+        <v>0.9904717206954956</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.992774486541748</v>
+        <v>0.9906236529350281</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5193892121315002</v>
+        <v>0.4458584785461426</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9935085773468018</v>
+        <v>0.9914610385894775</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9943892359733582</v>
+        <v>0.9925693869590759</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9931285381317139</v>
+        <v>0.9910334944725037</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9937233328819275</v>
+        <v>0.9917508959770203</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9935105443000793</v>
+        <v>0.9915176033973694</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9937758445739746</v>
+        <v>0.9918335676193237</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9116222262382507</v>
+        <v>0.8966191411018372</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4167393147945404</v>
+        <v>0.344679981470108</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9934840798377991</v>
+        <v>0.9914557337760925</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9918951392173767</v>
+        <v>0.9895608425140381</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.993218719959259</v>
+        <v>0.9911750555038452</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9927476048469543</v>
+        <v>0.9905519485473633</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9918814301490784</v>
+        <v>0.9895567297935486</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9933097362518311</v>
+        <v>0.9912021160125732</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9749556183815002</v>
+        <v>0.9708592295646667</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9830518960952759</v>
+        <v>0.9699510335922241</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9795462489128113</v>
+        <v>0.9644061326980591</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9932453036308289</v>
+        <v>0.9911829233169556</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.981168270111084</v>
+        <v>0.9668375849723816</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9940896034240723</v>
+        <v>0.9921913743019104</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9306527376174927</v>
+        <v>0.9022923111915588</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9745076894760132</v>
+        <v>0.9714791774749756</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9941219687461853</v>
+        <v>0.9921897053718567</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9786391258239746</v>
+        <v>0.9613401293754578</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9722620844841003</v>
+        <v>0.9681938886642456</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9761442542076111</v>
+        <v>0.9594771265983582</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9767779111862183</v>
+        <v>0.9730832576751709</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9733836650848389</v>
+        <v>0.968975305557251</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7023311853408813</v>
+        <v>0.6463159918785095</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9726223349571228</v>
+        <v>0.9682810306549072</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9944223761558533</v>
+        <v>0.992621898651123</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9668375849723816</v>
+        <v>0.9613629579544067</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9507571458816528</v>
+        <v>0.9454399347305298</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9918513894081116</v>
+        <v>0.9895629286766052</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9668375849723816</v>
+        <v>0.9613629579544067</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9665985107421875</v>
+        <v>0.9611364006996155</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9931861162185669</v>
+        <v>0.9911084175109863</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9941521286964417</v>
+        <v>0.9922814965248108</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9943789839744568</v>
+        <v>0.9925370812416077</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9801755547523499</v>
+        <v>0.9649426341056824</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9944301247596741</v>
+        <v>0.9925865530967712</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9939543604850769</v>
+        <v>0.9919801950454712</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9940657615661621</v>
+        <v>0.9921497106552124</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.99393230676651</v>
+        <v>0.9919891953468323</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9771738052368164</v>
+        <v>0.9605133533477783</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7954216599464417</v>
+        <v>0.6792988181114197</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9801621437072754</v>
+        <v>0.9649489521980286</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9801621437072754</v>
+        <v>0.9649489521980286</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9771190285682678</v>
+        <v>0.9604340791702271</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9801621437072754</v>
+        <v>0.9649489521980286</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.897562563419342</v>
+        <v>0.9098182320594788</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9931710958480835</v>
+        <v>0.9911132454872131</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9784409999847412</v>
+        <v>0.9623159170150757</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9903276562690735</v>
+        <v>0.9877440333366394</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9814599752426147</v>
+        <v>0.9672077298164368</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9937852621078491</v>
+        <v>0.9918467998504639</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9905397891998291</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9814599752426147</v>
+        <v>0.9672077298164368</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9918932914733887</v>
+        <v>0.9895561337471008</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9814599752426147</v>
+        <v>0.9672077298164368</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9935556054115295</v>
+        <v>0.9915443658828735</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9813768267631531</v>
+        <v>0.966951310634613</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.991923987865448</v>
+        <v>0.9895729422569275</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9813768267631531</v>
+        <v>0.966951310634613</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9918996095657349</v>
+        <v>0.9895504117012024</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9918996095657349</v>
+        <v>0.9895504117012024</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9944905042648315</v>
+        <v>0.9926829934120178</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9822752475738525</v>
+        <v>0.9681819081306458</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9934808015823364</v>
+        <v>0.9914845824241638</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9815574884414673</v>
+        <v>0.9671970009803772</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9918835163116455</v>
+        <v>0.9895834922790527</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9937333464622498</v>
+        <v>0.9917701482772827</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9937292337417603</v>
+        <v>0.9917607307434082</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9937362670898438</v>
+        <v>0.9917751550674438</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9937214851379395</v>
+        <v>0.9917591214179993</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9937242865562439</v>
+        <v>0.9917568564414978</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9937242865562439</v>
+        <v>0.9917598366737366</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9943254590034485</v>
+        <v>0.9924960136413574</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5726019144058228</v>
+        <v>0.6774884462356567</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9943252205848694</v>
+        <v>0.9925044775009155</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9620885848999023</v>
+        <v>0.9401013255119324</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9931967258453369</v>
+        <v>0.9911330342292786</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9934597015380859</v>
+        <v>0.9914719462394714</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8246528506278992</v>
+        <v>0.8116096258163452</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9704403877258301</v>
+        <v>0.9655627012252808</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.992712140083313</v>
+        <v>0.9905405044555664</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.899638295173645</v>
+        <v>0.9124006628990173</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9931835532188416</v>
+        <v>0.9911052584648132</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9731985926628113</v>
+        <v>0.9686930775642395</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9173012375831604</v>
+        <v>0.9031323194503784</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9935636520385742</v>
+        <v>0.9915736317634583</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9918951392173767</v>
+        <v>0.9895608425140381</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9749792218208313</v>
+        <v>0.9709215760231018</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9727014899253845</v>
+        <v>0.968168318271637</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9830538630485535</v>
+        <v>0.9695686101913452</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9939520955085754</v>
+        <v>0.9920390844345093</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9822536110877991</v>
+        <v>0.9682130813598633</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9918774366378784</v>
+        <v>0.9894711971282959</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9926325678825378</v>
+        <v>0.9904493689537048</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.808354377746582</v>
+        <v>0.8003610968589783</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9350677728652954</v>
+        <v>0.895422101020813</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9918951392173767</v>
+        <v>0.9895608425140381</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8986215591430664</v>
+        <v>0.9103028178215027</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9943115711212158</v>
+        <v>0.9925026893615723</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8986215591430664</v>
+        <v>0.9103028178215027</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9943115711212158</v>
+        <v>0.9925026893615723</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8986215591430664</v>
+        <v>0.9103028178215027</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9942981600761414</v>
+        <v>0.9924575090408325</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7753324508666992</v>
+        <v>0.7641865015029907</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9918951392173767</v>
+        <v>0.9895608425140381</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.990759015083313</v>
+        <v>0.9879270195960999</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7195286750793457</v>
+        <v>0.6697274446487427</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9927303194999695</v>
+        <v>0.9905489087104797</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4929471015930176</v>
+        <v>0.4147539138793945</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9926482439041138</v>
+        <v>0.9904757142066956</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9938169121742249</v>
+        <v>0.9918932914733887</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9932569265365601</v>
+        <v>0.991181492805481</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9904113411903381</v>
+        <v>0.9877265095710754</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.992763340473175</v>
+        <v>0.9905937314033508</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9927117824554443</v>
+        <v>0.9905145168304443</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9927589893341064</v>
+        <v>0.9905595183372498</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9919881820678711</v>
+        <v>0.9896877408027649</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.993909478187561</v>
+        <v>0.992053747177124</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9918951392173767</v>
+        <v>0.9895608425140381</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9797572493553162</v>
+        <v>0.9643115401268005</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9939026832580566</v>
+        <v>0.991986870765686</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9797572493553162</v>
+        <v>0.9643115401268005</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9918506741523743</v>
+        <v>0.9895431995391846</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.897562563419342</v>
+        <v>0.9098182320594788</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9934818148612976</v>
+        <v>0.9914924502372742</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9807604551315308</v>
+        <v>0.9658116102218628</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7948880791664124</v>
+        <v>0.8212584257125854</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9918951392173767</v>
+        <v>0.9895608425140381</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7841107249259949</v>
+        <v>0.7550750970840454</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9942023158073425</v>
+        <v>0.9923614263534546</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9172213077545166</v>
+        <v>0.9032086133956909</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9937896132469177</v>
+        <v>0.9918151497840881</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9182217717170715</v>
+        <v>0.9040414690971375</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9939416646957397</v>
+        <v>0.9920063614845276</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9184828996658325</v>
+        <v>0.9044081568717957</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9940165281295776</v>
+        <v>0.9921121597290039</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9738938212394714</v>
+        <v>0.9565067291259766</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9934751391410828</v>
+        <v>0.9914393424987793</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9934045672416687</v>
+        <v>0.9911593794822693</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.992745041847229</v>
+        <v>0.9905761480331421</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9795504808425903</v>
+        <v>0.9641546010971069</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9942956566810608</v>
+        <v>0.9924363493919373</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9736126661300659</v>
+        <v>0.9544586539268494</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9704520702362061</v>
+        <v>0.9650905728340149</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9826603531837463</v>
+        <v>0.969299852848053</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9918951392173767</v>
+        <v>0.9895608425140381</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9704520702362061</v>
+        <v>0.9650905728340149</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9818692803382874</v>
+        <v>0.9678857922554016</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9918951392173767</v>
+        <v>0.9895608425140381</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9927194118499756</v>
+        <v>0.990545392036438</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9927443265914917</v>
+        <v>0.9905604720115662</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9927194118499756</v>
+        <v>0.990545392036438</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9927194118499756</v>
+        <v>0.990545392036438</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9927443265914917</v>
+        <v>0.9905604720115662</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9935192465782166</v>
+        <v>0.9915082454681396</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9904751181602478</v>
+        <v>0.9878649115562439</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9926976561546326</v>
+        <v>0.9905136823654175</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9935856461524963</v>
+        <v>0.9915764927864075</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9931821227073669</v>
+        <v>0.9910781979560852</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9003896713256836</v>
+        <v>0.9134159088134766</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9939832091331482</v>
+        <v>0.9920632243156433</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9939642548561096</v>
+        <v>0.9920663833618164</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9940491914749146</v>
+        <v>0.9921757578849792</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9940277338027954</v>
+        <v>0.9921129941940308</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.993504524230957</v>
+        <v>0.9914899468421936</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9936754107475281</v>
+        <v>0.9916864037513733</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9936810731887817</v>
+        <v>0.9916865229606628</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5643020868301392</v>
+        <v>0.6631342768669128</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9932366013526917</v>
+        <v>0.9911714196205139</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9927823543548584</v>
+        <v>0.990581750869751</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8933075666427612</v>
+        <v>0.9049572348594666</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9756472110748291</v>
+        <v>0.9717337489128113</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9940032362937927</v>
+        <v>0.9920865893363953</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9940701127052307</v>
+        <v>0.9921654462814331</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9941762685775757</v>
+        <v>0.9922989010810852</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9934578537940979</v>
+        <v>0.9914537668228149</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9469751715660095</v>
+        <v>0.9050778150558472</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.99347323179245</v>
+        <v>0.9914467334747314</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9936007857322693</v>
+        <v>0.9915881752967834</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9927593469619751</v>
+        <v>0.9905767440795898</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9705224633216858</v>
+        <v>0.9654080271720886</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.994231104850769</v>
+        <v>0.9923650026321411</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.992669939994812</v>
+        <v>0.9904796481132507</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.5777250528335571</v>
+        <v>0.6788519620895386</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9903978109359741</v>
+        <v>0.9878103733062744</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.472185343503952</v>
+        <v>0.4036670923233032</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9926791191101074</v>
+        <v>0.9904876351356506</v>
       </c>
     </row>
   </sheetData>
